--- a/doc/RaportZTestow/F_0.75_Cr_0.25_L_5.xlsx
+++ b/doc/RaportZTestow/F_0.75_Cr_0.25_L_5.xlsx
@@ -638,11 +638,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -674,6 +669,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,6 +681,395 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Expected</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>-1400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Our</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>-1400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2641.2058272261397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1189.3595638565623</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-538.22024567702897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-999.99999999999523</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-899.85266736816254</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-799.90488731018024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-687.42513822971478</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-598.44318758224142</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-499.82609908009977</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-399.91520823431506</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-298.71960537187175</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-197.30689911377175</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-80.699186875481701</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200.674288569277</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>200.42546557366529</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>305.62883809431207</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>406.46227356285141</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>500.09409722072377</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>600.58782885821427</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>824.22994211351477</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>942.43612127842709</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1102.7279780188178</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1063.6034258219099</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1196.6799120234273</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1298.81492261474</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1614.6041362665615</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1635.1182932747183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Classic</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>-1400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43632.742585900873</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1114.524802780787</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.270774184735302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-999.99999925225131</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-899.68690720099289</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-798.61453910835371</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-679.97364268120612</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-598.34307801575585</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-499.47324343941682</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-399.99939277818476</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-296.2887845722102</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-197.67327007333864</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-97.899264732653592</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>273.13557478263442</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>200.77107283942931</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>305.78273220348905</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>409.23455136905432</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>500.09649056571004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>600.44310132971725</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>833.42846629343842</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>917.40525317610479</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1352.1706785044521</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1094.0670174661793</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1212.2566002764195</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1306.4491530121663</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1649.1820431855499</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1696.9259242468379</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="104891136"/>
+        <c:axId val="104892672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="104891136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104892672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="104892672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2000"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104891136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -970,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="AE29" sqref="AE29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -999,33 +1388,33 @@
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="16" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="48"/>
+      <c r="K1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="16" t="s">
+      <c r="L1" s="48"/>
+      <c r="M1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="18"/>
+      <c r="N1" s="49"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A2" s="19"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="11"/>
       <c r="C2" s="8" t="s">
         <v>36</v>
@@ -1060,187 +1449,187 @@
       <c r="M2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="17" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="41">
         <v>-1400</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="42">
         <v>-1400</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="43">
         <v>-1400</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="42">
         <v>-1400</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="44">
         <v>-1399.9999998962919</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="42">
         <v>-1400</v>
       </c>
-      <c r="H3" s="47">
+      <c r="H3" s="44">
         <v>-1399.9999999837846</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I3" s="42">
         <v>-1400</v>
       </c>
-      <c r="J3" s="47">
+      <c r="J3" s="44">
         <v>-1399.9999999651845</v>
       </c>
-      <c r="K3" s="45">
+      <c r="K3" s="42">
         <v>-1400</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="44">
         <v>-1399.9999999575541</v>
       </c>
-      <c r="M3" s="48">
+      <c r="M3" s="45">
         <v>0</v>
       </c>
-      <c r="N3" s="49">
+      <c r="N3" s="46">
         <v>2.5686245965145711E-8</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="19">
         <v>-1300</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="20">
         <f>G4</f>
         <v>2641.2058272261397</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="21">
         <f>H4</f>
         <v>43632.742585900873</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="20">
         <v>38731.693308650123</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="22">
         <v>149504.49072343082</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="20">
         <v>2641.2058272261397</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="22">
         <v>43632.742585900873</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="20">
         <v>20033.123557749379</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="22">
         <v>74820.867488303906</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="20">
         <v>21996.021649256232</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="22">
         <v>83056.680977595999</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="23">
         <v>12205.723540581181</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="24">
         <v>30116.917696554039</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="34">
         <v>-1200</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="35">
         <f>G5</f>
         <v>-1189.3595638565623</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="36">
         <f>H5</f>
         <v>-1114.524802780787</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="35">
         <v>1239.6396078972834</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="37">
         <v>184.11656165042314</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="35">
         <v>-1189.3595638565623</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="37">
         <v>-1114.524802780787</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="35">
         <v>-1150.3848480468005</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="37">
         <v>-805.20540764744294</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="35">
         <v>-804.30179783242295</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="37">
         <v>-672.66508256017141</v>
       </c>
-      <c r="M5" s="41">
+      <c r="M5" s="38">
         <v>749.07514809115924</v>
       </c>
-      <c r="N5" s="42">
+      <c r="N5" s="39">
         <v>398.49625371859798</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="19">
         <v>-1100</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="20">
         <v>-538.22024567702897</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="21">
         <v>39.270774184735302</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="20">
         <v>282.5290921888195</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="22">
         <v>3896.2853286264635</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="20">
         <v>-628.35397253072733</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="22">
         <v>39.270774184735274</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="20">
         <v>-71.915283754087341</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="22">
         <v>1715.5674811360122</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="20">
         <v>-119.31709334116633</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="22">
         <v>1894.4261024549417</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="23">
         <v>314.62415589149748</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="24">
         <v>1351.1425664245276</v>
       </c>
     </row>
@@ -1252,11 +1641,11 @@
         <v>-1000</v>
       </c>
       <c r="C7" s="4">
-        <f>G7</f>
+        <f t="shared" ref="C7:D11" si="0">G7</f>
         <v>-999.99999999999523</v>
       </c>
       <c r="D7" s="6">
-        <f>H7</f>
+        <f t="shared" si="0"/>
         <v>-999.99999925225131</v>
       </c>
       <c r="E7" s="4">
@@ -1291,48 +1680,48 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="19">
         <v>-900</v>
       </c>
-      <c r="C8" s="23">
-        <f>G8</f>
+      <c r="C8" s="20">
+        <f t="shared" si="0"/>
         <v>-899.85266736816254</v>
       </c>
-      <c r="D8" s="24">
-        <f>H8</f>
+      <c r="D8" s="21">
+        <f t="shared" si="0"/>
         <v>-899.68690720099289</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="20">
         <v>-898.23162222562132</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="22">
         <v>-897.99690318781109</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="20">
         <v>-899.85266736816254</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="22">
         <v>-899.68690720099289</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="20">
         <v>-899.13645736304386</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="22">
         <v>-898.84852761636171</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="20">
         <v>-899.09923940766305</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="22">
         <v>-898.81085899109814</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="23">
         <v>0.56309836231581678</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="24">
         <v>0.50897293601499227</v>
       </c>
     </row>
@@ -1344,11 +1733,11 @@
         <v>-800</v>
       </c>
       <c r="C9" s="4">
-        <f>G9</f>
+        <f t="shared" si="0"/>
         <v>-799.90488731018024</v>
       </c>
       <c r="D9" s="6">
-        <f>H9</f>
+        <f t="shared" si="0"/>
         <v>-798.61453910835371</v>
       </c>
       <c r="E9" s="4">
@@ -1383,48 +1772,48 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="19">
         <v>-700</v>
       </c>
-      <c r="C10" s="23">
-        <f>G10</f>
+      <c r="C10" s="20">
+        <f t="shared" si="0"/>
         <v>-687.42513822971478</v>
       </c>
-      <c r="D10" s="24">
-        <f>H10</f>
+      <c r="D10" s="21">
+        <f t="shared" si="0"/>
         <v>-679.97364268120612</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="20">
         <v>-679.87467512433841</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="22">
         <v>-679.81345654850827</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="20">
         <v>-687.42513822971478</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="22">
         <v>-679.97364268120612</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="20">
         <v>-680.4433412761573</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="22">
         <v>-679.88854326789692</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="20">
         <v>-681.35643757255355</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="22">
         <v>-679.8960966862486</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="23">
         <v>2.3177327085958108</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="24">
         <v>5.1659177985436823E-2</v>
       </c>
     </row>
@@ -1436,11 +1825,11 @@
         <v>-600</v>
       </c>
       <c r="C11" s="4">
-        <f>G11</f>
+        <f t="shared" si="0"/>
         <v>-598.44318758224142</v>
       </c>
       <c r="D11" s="6">
-        <f>H11</f>
+        <f t="shared" si="0"/>
         <v>-598.34307801575585</v>
       </c>
       <c r="E11" s="4">
@@ -1475,48 +1864,48 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="19">
         <v>-500</v>
       </c>
-      <c r="C12" s="23">
-        <f t="shared" ref="C12:C29" si="0">G12</f>
+      <c r="C12" s="20">
+        <f t="shared" ref="C12:C29" si="1">G12</f>
         <v>-499.82609908009977</v>
       </c>
-      <c r="D12" s="24">
-        <f t="shared" ref="D12:D29" si="1">H12</f>
+      <c r="D12" s="21">
+        <f t="shared" ref="D12:D29" si="2">H12</f>
         <v>-499.47324343941682</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="20">
         <v>-499.64505200870036</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="22">
         <v>-499.09109058969199</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="20">
         <v>-499.82609908009977</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="22">
         <v>-499.47324343941682</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="20">
         <v>-499.73997410913216</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="22">
         <v>-499.25264947186361</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="20">
         <v>-499.73451579319055</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="22">
         <v>-499.2776503473699</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="23">
         <v>6.0625574631637598E-2</v>
       </c>
-      <c r="N12" s="27">
+      <c r="N12" s="24">
         <v>0.12534482465325611</v>
       </c>
     </row>
@@ -1528,11 +1917,11 @@
         <v>-400</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-399.91520823431506</v>
       </c>
       <c r="D13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-399.99939277818476</v>
       </c>
       <c r="E13" s="4">
@@ -1567,48 +1956,48 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="19">
         <v>-300</v>
       </c>
-      <c r="C14" s="23">
-        <f t="shared" si="0"/>
+      <c r="C14" s="20">
+        <f t="shared" si="1"/>
         <v>-298.71960537187175</v>
       </c>
-      <c r="D14" s="24">
-        <f t="shared" si="1"/>
+      <c r="D14" s="21">
+        <f t="shared" si="2"/>
         <v>-296.2887845722102</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="20">
         <v>-294.08121628616959</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="22">
         <v>-291.31959336284859</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="20">
         <v>-298.71960537187175</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="22">
         <v>-296.2887845722102</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="20">
         <v>-296.07239048290381</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="22">
         <v>-292.92587813699123</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="20">
         <v>-296.23858367358338</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="22">
         <v>-293.20397734848132</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="23">
         <v>1.4389010655072225</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="24">
         <v>1.4135295506590972</v>
       </c>
     </row>
@@ -1620,11 +2009,11 @@
         <v>-200</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-197.30689911377175</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-197.67327007333864</v>
       </c>
       <c r="E15" s="4">
@@ -1659,48 +2048,48 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="19">
         <v>-100</v>
       </c>
-      <c r="C16" s="23">
-        <f t="shared" si="0"/>
+      <c r="C16" s="20">
+        <f t="shared" si="1"/>
         <v>-80.699186875481701</v>
       </c>
-      <c r="D16" s="24">
-        <f t="shared" si="1"/>
+      <c r="D16" s="21">
+        <f t="shared" si="2"/>
         <v>-97.899264732653592</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="20">
         <v>-42.984150296478674</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="22">
         <v>-89.201003173261597</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="20">
         <v>-80.699186875481701</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="22">
         <v>-97.899264732653592</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="20">
         <v>-53.612330357606652</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="22">
         <v>-93.479853628802402</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="20">
         <v>-56.543582434557266</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="22">
         <v>-93.745073097494512</v>
       </c>
-      <c r="M16" s="26">
+      <c r="M16" s="23">
         <v>12.813697658899038</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="24">
         <v>2.6165896443217047</v>
       </c>
     </row>
@@ -1712,11 +2101,11 @@
         <v>100</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200.674288569277</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>273.13557478263442</v>
       </c>
       <c r="E17" s="4">
@@ -1751,48 +2140,48 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="19">
         <v>200</v>
       </c>
-      <c r="C18" s="23">
-        <f t="shared" si="0"/>
+      <c r="C18" s="20">
+        <f t="shared" si="1"/>
         <v>200.42546557366529</v>
       </c>
-      <c r="D18" s="24">
-        <f t="shared" si="1"/>
+      <c r="D18" s="21">
+        <f t="shared" si="2"/>
         <v>200.77107283942931</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="20">
         <v>201.06801500897197</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="22">
         <v>201.33638151412478</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="20">
         <v>200.42546557366529</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="22">
         <v>200.77107283942931</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="20">
         <v>200.7979701297258</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="22">
         <v>201.00965859355489</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="20">
         <v>200.78484489853784</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18" s="22">
         <v>201.03951683663738</v>
       </c>
-      <c r="M18" s="26">
+      <c r="M18" s="23">
         <v>0.2113869859487888</v>
       </c>
-      <c r="N18" s="27">
+      <c r="N18" s="24">
         <v>0.22525892297157779</v>
       </c>
     </row>
@@ -1804,11 +2193,11 @@
         <v>300</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>305.62883809431207</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>305.78273220348905</v>
       </c>
       <c r="E19" s="4">
@@ -1843,48 +2232,48 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="19">
         <v>400</v>
       </c>
-      <c r="C20" s="23">
-        <f t="shared" si="0"/>
+      <c r="C20" s="20">
+        <f t="shared" si="1"/>
         <v>406.46227356285141</v>
       </c>
-      <c r="D20" s="24">
-        <f t="shared" si="1"/>
+      <c r="D20" s="21">
+        <f t="shared" si="2"/>
         <v>409.23455136905432</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="20">
         <v>412.1021421487531</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="22">
         <v>415.94027134834738</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="20">
         <v>406.46227356285141</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="22">
         <v>409.23455136905432</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="20">
         <v>409.0648286962936</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="22">
         <v>411.8826850630403</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="20">
         <v>409.11801761863694</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="22">
         <v>412.17231012030402</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M20" s="23">
         <v>1.3787581120861081</v>
       </c>
-      <c r="N20" s="27">
+      <c r="N20" s="24">
         <v>2.0968708809749526</v>
       </c>
     </row>
@@ -1896,11 +2285,11 @@
         <v>500</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>500.09409722072377</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>500.09649056571004</v>
       </c>
       <c r="E21" s="4">
@@ -1935,48 +2324,48 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="19">
         <v>600</v>
       </c>
-      <c r="C22" s="23">
-        <f t="shared" si="0"/>
+      <c r="C22" s="20">
+        <f t="shared" si="1"/>
         <v>600.58782885821427</v>
       </c>
-      <c r="D22" s="24">
-        <f t="shared" si="1"/>
+      <c r="D22" s="21">
+        <f t="shared" si="2"/>
         <v>600.44310132971725</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="20">
         <v>600.98671145895992</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="22">
         <v>601.19665185032954</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="20">
         <v>600.58782885821427</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="22">
         <v>600.44310132971725</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="20">
         <v>600.80583481907433</v>
       </c>
-      <c r="J22" s="25">
+      <c r="J22" s="22">
         <v>600.88036021910352</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="20">
         <v>600.78981792307854</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L22" s="22">
         <v>600.86221699057046</v>
       </c>
-      <c r="M22" s="26">
+      <c r="M22" s="23">
         <v>0.13624301248236598</v>
       </c>
-      <c r="N22" s="27">
+      <c r="N22" s="24">
         <v>0.25009183894827697</v>
       </c>
     </row>
@@ -1988,11 +2377,11 @@
         <v>700</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>824.22994211351477</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>833.42846629343842</v>
       </c>
       <c r="E23" s="4">
@@ -2027,48 +2416,48 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="19">
         <v>800</v>
       </c>
-      <c r="C24" s="23">
-        <f t="shared" si="0"/>
+      <c r="C24" s="20">
+        <f t="shared" si="1"/>
         <v>942.43612127842709</v>
       </c>
-      <c r="D24" s="24">
-        <f t="shared" si="1"/>
+      <c r="D24" s="21">
+        <f t="shared" si="2"/>
         <v>917.40525317610479</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="20">
         <v>1022.1993336937176</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="22">
         <v>1026.9361127720176</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="20">
         <v>942.43612127842709</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="22">
         <v>917.40525317610479</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="20">
         <v>975.71263901417956</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J24" s="22">
         <v>990.92100219513088</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="20">
         <v>975.65154898508604</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="22">
         <v>984.20579885541974</v>
       </c>
-      <c r="M24" s="26">
+      <c r="M24" s="23">
         <v>24.624388444295739</v>
       </c>
-      <c r="N24" s="27">
+      <c r="N24" s="24">
         <v>31.268048461028577</v>
       </c>
     </row>
@@ -2080,11 +2469,11 @@
         <v>900</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1102.7279780188178</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1352.1706785044521</v>
       </c>
       <c r="E25" s="4">
@@ -2119,48 +2508,48 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="19">
         <v>1000</v>
       </c>
-      <c r="C26" s="23">
-        <f t="shared" si="0"/>
+      <c r="C26" s="20">
+        <f t="shared" si="1"/>
         <v>1063.6034258219099</v>
       </c>
-      <c r="D26" s="24">
-        <f t="shared" si="1"/>
+      <c r="D26" s="21">
+        <f t="shared" si="2"/>
         <v>1094.0670174661793</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="20">
         <v>1124.4904001491109</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="22">
         <v>1135.5660405105946</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="20">
         <v>1063.6034258219099</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="22">
         <v>1094.0670174661793</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="20">
         <v>1119.1814415518661</v>
       </c>
-      <c r="J26" s="25">
+      <c r="J26" s="22">
         <v>1122.4272389656562</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="20">
         <v>1107.2541575005371</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="22">
         <v>1121.0495049126685</v>
       </c>
-      <c r="M26" s="26">
+      <c r="M26" s="23">
         <v>20.888387264887704</v>
       </c>
-      <c r="N26" s="27">
+      <c r="N26" s="24">
         <v>11.679019835344393</v>
       </c>
     </row>
@@ -2172,11 +2561,11 @@
         <v>1100</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1196.6799120234273</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1212.2566002764195</v>
       </c>
       <c r="E27" s="4">
@@ -2211,48 +2600,48 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="19">
         <v>1200</v>
       </c>
-      <c r="C28" s="23">
-        <f t="shared" si="0"/>
+      <c r="C28" s="20">
+        <f t="shared" si="1"/>
         <v>1298.81492261474</v>
       </c>
-      <c r="D28" s="24">
-        <f t="shared" si="1"/>
+      <c r="D28" s="21">
+        <f t="shared" si="2"/>
         <v>1306.4491530121663</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="20">
         <v>1310.3901948836951</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="22">
         <v>1316.0928395233207</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="20">
         <v>1298.81492261474</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28" s="22">
         <v>1306.4491530121663</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="20">
         <v>1307.2502318513532</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28" s="22">
         <v>1312.2154105775023</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K28" s="20">
         <v>1305.9263953002853</v>
       </c>
-      <c r="L28" s="25">
+      <c r="L28" s="22">
         <v>1311.7432034226229</v>
       </c>
-      <c r="M28" s="26">
+      <c r="M28" s="23">
         <v>4.9726961955402951</v>
       </c>
-      <c r="N28" s="27">
+      <c r="N28" s="24">
         <v>3.9925755853328</v>
       </c>
     </row>
@@ -2264,11 +2653,11 @@
         <v>1300</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1614.6041362665615</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1649.1820431855499</v>
       </c>
       <c r="E29" s="4">
@@ -2303,62 +2692,63 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="26">
         <v>1400</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="20">
         <f>G30</f>
         <v>1635.1182932747183</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="21">
         <f>H30</f>
         <v>1696.9259242468379</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="27">
         <v>1711.4283589058352</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="28">
         <v>1700.4193399071924</v>
       </c>
-      <c r="G30" s="32">
+      <c r="G30" s="29">
         <v>1635.1182932747183</v>
       </c>
-      <c r="H30" s="33">
+      <c r="H30" s="30">
         <v>1696.9259242468379</v>
       </c>
-      <c r="I30" s="32">
+      <c r="I30" s="29">
         <v>1688.6361868550593</v>
       </c>
-      <c r="J30" s="33">
+      <c r="J30" s="30">
         <v>1700.0684248638272</v>
       </c>
-      <c r="K30" s="32">
+      <c r="K30" s="29">
         <v>1680.9547564726681</v>
       </c>
-      <c r="L30" s="33">
+      <c r="L30" s="30">
         <v>1699.370528470421</v>
       </c>
-      <c r="M30" s="34">
+      <c r="M30" s="31">
         <v>35.021709423293267</v>
       </c>
-      <c r="N30" s="35">
+      <c r="N30" s="32">
         <v>1.6381683537848497</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/RaportZTestow/F_0.75_Cr_0.25_L_5.xlsx
+++ b/doc/RaportZTestow/F_0.75_Cr_0.25_L_5.xlsx
@@ -672,8 +672,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -992,24 +992,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="104891136"/>
-        <c:axId val="104892672"/>
+        <c:axId val="84609664"/>
+        <c:axId val="84631936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104891136"/>
+        <c:axId val="84609664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104892672"/>
+        <c:crossAx val="84631936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104892672"/>
+        <c:axId val="84631936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -1018,7 +1018,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104891136"/>
+        <c:crossAx val="84609664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1026,6 +1026,81 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Porównanie algorytmów</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>Our</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Classic</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$31:$P$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1041,16 +1116,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1064,6 +1139,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1357,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="AE29" sqref="AE29"/>
+    <sheetView tabSelected="1" topLeftCell="D26" workbookViewId="0">
+      <selection activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1381,7 +1486,7 @@
     <col min="14" max="14" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickTop="1">
+    <row r="1" spans="1:16" ht="15.75" thickTop="1">
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
@@ -1391,29 +1496,29 @@
       <c r="C1" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="48"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="48"/>
+      <c r="F1" s="49"/>
       <c r="G1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="48"/>
+      <c r="H1" s="49"/>
       <c r="I1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="48"/>
+      <c r="J1" s="49"/>
       <c r="K1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="48"/>
+      <c r="L1" s="49"/>
       <c r="M1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="49"/>
+      <c r="N1" s="48"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1">
       <c r="A2" s="16"/>
       <c r="B2" s="11"/>
       <c r="C2" s="8" t="s">
@@ -1453,7 +1558,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16">
       <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
@@ -1496,8 +1601,16 @@
       <c r="N3" s="46">
         <v>2.5686245965145711E-8</v>
       </c>
+      <c r="O3">
+        <f>IF(ABS(C3-B3)&lt;ABS(D3-B3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>IF(ABS(C3-B3)&gt;ABS(D3-B3),1,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4" s="18" t="s">
         <v>7</v>
       </c>
@@ -1542,8 +1655,16 @@
       <c r="N4" s="24">
         <v>30116.917696554039</v>
       </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O30" si="0">IF(ABS(C4-B4)&lt;ABS(D4-B4),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P30" si="1">IF(ABS(C4-B4)&gt;ABS(D4-B4),1,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:16">
       <c r="A5" s="33" t="s">
         <v>8</v>
       </c>
@@ -1588,8 +1709,16 @@
       <c r="N5" s="39">
         <v>398.49625371859798</v>
       </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:16">
       <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
@@ -1632,8 +1761,16 @@
       <c r="N6" s="24">
         <v>1351.1425664245276</v>
       </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:16">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -1641,11 +1778,11 @@
         <v>-1000</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" ref="C7:D11" si="0">G7</f>
+        <f t="shared" ref="C7:D11" si="2">G7</f>
         <v>-999.99999999999523</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-999.99999925225131</v>
       </c>
       <c r="E7" s="4">
@@ -1678,8 +1815,16 @@
       <c r="N7" s="1">
         <v>7.3494020205296897E-7</v>
       </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:16">
       <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
@@ -1687,11 +1832,11 @@
         <v>-900</v>
       </c>
       <c r="C8" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-899.85266736816254</v>
       </c>
       <c r="D8" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-899.68690720099289</v>
       </c>
       <c r="E8" s="20">
@@ -1724,8 +1869,16 @@
       <c r="N8" s="24">
         <v>0.50897293601499227</v>
       </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:16">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -1733,11 +1886,11 @@
         <v>-800</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-799.90488731018024</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-798.61453910835371</v>
       </c>
       <c r="E9" s="4">
@@ -1770,8 +1923,16 @@
       <c r="N9" s="1">
         <v>0.40289046438244336</v>
       </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:16">
       <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
@@ -1779,11 +1940,11 @@
         <v>-700</v>
       </c>
       <c r="C10" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-687.42513822971478</v>
       </c>
       <c r="D10" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-679.97364268120612</v>
       </c>
       <c r="E10" s="20">
@@ -1816,8 +1977,16 @@
       <c r="N10" s="24">
         <v>5.1659177985436823E-2</v>
       </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:16">
       <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
@@ -1825,11 +1994,11 @@
         <v>-600</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-598.44318758224142</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-598.34307801575585</v>
       </c>
       <c r="E11" s="4">
@@ -1862,8 +2031,16 @@
       <c r="N11" s="1">
         <v>0.25797759829494959</v>
       </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:16">
       <c r="A12" s="18" t="s">
         <v>15</v>
       </c>
@@ -1871,11 +2048,11 @@
         <v>-500</v>
       </c>
       <c r="C12" s="20">
-        <f t="shared" ref="C12:C29" si="1">G12</f>
+        <f t="shared" ref="C12:C29" si="3">G12</f>
         <v>-499.82609908009977</v>
       </c>
       <c r="D12" s="21">
-        <f t="shared" ref="D12:D29" si="2">H12</f>
+        <f t="shared" ref="D12:D29" si="4">H12</f>
         <v>-499.47324343941682</v>
       </c>
       <c r="E12" s="20">
@@ -1908,8 +2085,16 @@
       <c r="N12" s="24">
         <v>0.12534482465325611</v>
       </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:16">
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
@@ -1917,11 +2102,11 @@
         <v>-400</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-399.91520823431506</v>
       </c>
       <c r="D13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-399.99939277818476</v>
       </c>
       <c r="E13" s="4">
@@ -1954,8 +2139,16 @@
       <c r="N13" s="1">
         <v>4.2697241312108459E-3</v>
       </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:16">
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
@@ -1963,11 +2156,11 @@
         <v>-300</v>
       </c>
       <c r="C14" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-298.71960537187175</v>
       </c>
       <c r="D14" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-296.2887845722102</v>
       </c>
       <c r="E14" s="20">
@@ -2000,8 +2193,16 @@
       <c r="N14" s="24">
         <v>1.4135295506590972</v>
       </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:16">
       <c r="A15" s="7" t="s">
         <v>18</v>
       </c>
@@ -2009,11 +2210,11 @@
         <v>-200</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-197.30689911377175</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-197.67327007333864</v>
       </c>
       <c r="E15" s="4">
@@ -2046,8 +2247,16 @@
       <c r="N15" s="1">
         <v>2.0975173776736007</v>
       </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:16">
       <c r="A16" s="18" t="s">
         <v>19</v>
       </c>
@@ -2055,11 +2264,11 @@
         <v>-100</v>
       </c>
       <c r="C16" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-80.699186875481701</v>
       </c>
       <c r="D16" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-97.899264732653592</v>
       </c>
       <c r="E16" s="20">
@@ -2092,8 +2301,16 @@
       <c r="N16" s="24">
         <v>2.6165896443217047</v>
       </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:16">
       <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
@@ -2101,11 +2318,11 @@
         <v>100</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>200.674288569277</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>273.13557478263442</v>
       </c>
       <c r="E17" s="4">
@@ -2138,8 +2355,16 @@
       <c r="N17" s="1">
         <v>123.65286864888236</v>
       </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:16">
       <c r="A18" s="18" t="s">
         <v>21</v>
       </c>
@@ -2147,11 +2372,11 @@
         <v>200</v>
       </c>
       <c r="C18" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>200.42546557366529</v>
       </c>
       <c r="D18" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>200.77107283942931</v>
       </c>
       <c r="E18" s="20">
@@ -2184,8 +2409,16 @@
       <c r="N18" s="24">
         <v>0.22525892297157779</v>
       </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:16">
       <c r="A19" s="7" t="s">
         <v>22</v>
       </c>
@@ -2193,11 +2426,11 @@
         <v>300</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>305.62883809431207</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>305.78273220348905</v>
       </c>
       <c r="E19" s="4">
@@ -2230,8 +2463,16 @@
       <c r="N19" s="1">
         <v>0.31072007581251482</v>
       </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:16">
       <c r="A20" s="18" t="s">
         <v>23</v>
       </c>
@@ -2239,11 +2480,11 @@
         <v>400</v>
       </c>
       <c r="C20" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>406.46227356285141</v>
       </c>
       <c r="D20" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>409.23455136905432</v>
       </c>
       <c r="E20" s="20">
@@ -2276,8 +2517,16 @@
       <c r="N20" s="24">
         <v>2.0968708809749526</v>
       </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:16">
       <c r="A21" s="7" t="s">
         <v>24</v>
       </c>
@@ -2285,11 +2534,11 @@
         <v>500</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>500.09409722072377</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>500.09649056571004</v>
       </c>
       <c r="E21" s="4">
@@ -2322,8 +2571,16 @@
       <c r="N21" s="1">
         <v>8.1323422536924414E-2</v>
       </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:16">
       <c r="A22" s="18" t="s">
         <v>25</v>
       </c>
@@ -2331,11 +2588,11 @@
         <v>600</v>
       </c>
       <c r="C22" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>600.58782885821427</v>
       </c>
       <c r="D22" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>600.44310132971725</v>
       </c>
       <c r="E22" s="20">
@@ -2368,8 +2625,16 @@
       <c r="N22" s="24">
         <v>0.25009183894827697</v>
       </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:16">
       <c r="A23" s="7" t="s">
         <v>26</v>
       </c>
@@ -2377,11 +2642,11 @@
         <v>700</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>824.22994211351477</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>833.42846629343842</v>
       </c>
       <c r="E23" s="4">
@@ -2414,8 +2679,16 @@
       <c r="N23" s="1">
         <v>27.594420001047496</v>
       </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:16">
       <c r="A24" s="18" t="s">
         <v>27</v>
       </c>
@@ -2423,11 +2696,11 @@
         <v>800</v>
       </c>
       <c r="C24" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>942.43612127842709</v>
       </c>
       <c r="D24" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>917.40525317610479</v>
       </c>
       <c r="E24" s="20">
@@ -2460,8 +2733,16 @@
       <c r="N24" s="24">
         <v>31.268048461028577</v>
       </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:16">
       <c r="A25" s="7" t="s">
         <v>28</v>
       </c>
@@ -2469,11 +2750,11 @@
         <v>900</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1102.7279780188178</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1352.1706785044521</v>
       </c>
       <c r="E25" s="4">
@@ -2506,8 +2787,16 @@
       <c r="N25" s="1">
         <v>91.151932652041083</v>
       </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:16">
       <c r="A26" s="18" t="s">
         <v>29</v>
       </c>
@@ -2515,11 +2804,11 @@
         <v>1000</v>
       </c>
       <c r="C26" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1063.6034258219099</v>
       </c>
       <c r="D26" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1094.0670174661793</v>
       </c>
       <c r="E26" s="20">
@@ -2552,8 +2841,16 @@
       <c r="N26" s="24">
         <v>11.679019835344393</v>
       </c>
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:16">
       <c r="A27" s="7" t="s">
         <v>30</v>
       </c>
@@ -2561,11 +2858,11 @@
         <v>1100</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1196.6799120234273</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1212.2566002764195</v>
       </c>
       <c r="E27" s="4">
@@ -2598,8 +2895,16 @@
       <c r="N27" s="1">
         <v>4.3748876060667214</v>
       </c>
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:16">
       <c r="A28" s="18" t="s">
         <v>31</v>
       </c>
@@ -2607,11 +2912,11 @@
         <v>1200</v>
       </c>
       <c r="C28" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1298.81492261474</v>
       </c>
       <c r="D28" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1306.4491530121663</v>
       </c>
       <c r="E28" s="20">
@@ -2644,8 +2949,16 @@
       <c r="N28" s="24">
         <v>3.9925755853328</v>
       </c>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:16">
       <c r="A29" s="7" t="s">
         <v>32</v>
       </c>
@@ -2653,11 +2966,11 @@
         <v>1300</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1614.6041362665615</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1649.1820431855499</v>
       </c>
       <c r="E29" s="4">
@@ -2690,8 +3003,16 @@
       <c r="N29" s="1">
         <v>5.3526873957171022</v>
       </c>
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:14" ht="15.75" thickBot="1">
+    <row r="30" spans="1:16" ht="15.75" thickBot="1">
       <c r="A30" s="25" t="s">
         <v>33</v>
       </c>
@@ -2736,8 +3057,25 @@
       <c r="N30" s="32">
         <v>1.6381683537848497</v>
       </c>
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" thickTop="1"/>
+    <row r="31" spans="1:16" ht="15.75" thickTop="1">
+      <c r="O31">
+        <f>SUM(O3:O30)</f>
+        <v>22</v>
+      </c>
+      <c r="P31">
+        <f>SUM(P3:P30)</f>
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="M1:N1"/>
